--- a/Pedido de Compras 4500037287 -.xlsx
+++ b/Pedido de Compras 4500037287 -.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,52 +488,1452 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30003358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CA EC0FILM 5mg/mL 1Fr.2,5mL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1374.75</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>15474.75</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>11.11.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>00020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30002530</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C0 EC0FILM 5mg/mL 1Fr.5mL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2291.25</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>25791.25</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>20.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>00030</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30002529</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C0 EC0FILM 5mg/mL 1Fr.1ômL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1145.63</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>12895.63</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00040</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30002533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C0 FLUTIN0L (mg/ml 1Fr.5mL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>400,000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4582.50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>51582.50</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00050</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30002534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C0 LACRIBELL 1Fr.15mL,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3436.88</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>38686.88</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>00070</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30002551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C0 MIRUGELL 1Fr.ômL 300,000  MI 117,50 9,75 3.436,88</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3436.88</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>00080</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>30002556</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CO PLENIGELL 5mg/mL 1Fr.5mL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C0 PLENIGELL 5mg/mL 1Fr.5mL 210,000 MI 117,50 9,75 2.405,81 27.080,81  05.08.2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>210,000</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>27080.81</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>05.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00090</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30002549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C0 MAXIFL0X-D 1Fr.ômL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4582.50</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>51582.50</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>27.11.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>00100</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30002549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C0 MAXIFL0X-D 1Fr.ômL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>128.96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>09.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>00110</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30003357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CA CICL0MIDRIN 10mg/mL 1Fr.5mL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>572.81</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6447.81</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>28.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00120</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30003359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CA EPITHELIZE 50mg/g 1Fr.sg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1718.44</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>19343.44</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>11.11.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>00130</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30003362</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CA LUNAH 1mg/mL 1Fr.2,5mL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>113,000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>113.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1294.56</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>14572.06</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>10.01.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>00140</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30003366</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CA MAXIFL0X-D 1Bis.2g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>916.50</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10316.50</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>30.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>00150</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30003367</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CA MAXIFL0X-D 1Fr.2,5mL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>105,000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>105.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1202.91</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>13540.41</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>05.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>00160</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30003370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CA 0FTPRED 10mg/mL 1Fr.2,5mL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>160,000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1833.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20633.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>05.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>00170</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30003372</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CA PLENIGELL 5mg/mL 1Fr.2,5mL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1374.75</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15474.75</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>07.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>00180</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30002528</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C0 CICL0MIDRIN 10mg/mL 1Fr.ômL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10316.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>7737.38</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>05.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>00190</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>30002527</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C0 CICL0MIDRIN 10mg/mL 1Fr.5mL CV 60,000  MI 117,50 9,75 687,38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>117,50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9,75</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2.405,81</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>27.080,81</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>05.08.2024</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>687.38</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>00200</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30002531</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C0 EPITHELIZE 50mg/g1Fr.10g 80,000  MI 117,50 9,75 916,50 10.316,50] 11.11.2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10316.50</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>11.11.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>00210</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30002532</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CO HIGICLER 1FR X 10ML</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1934.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1934.34</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>07.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>00220</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30002539</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C0 LUNAH 1mg/mL 1Fr.10mL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3436.88</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>38686.88</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>00230</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30002539</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C0 LUNAH Img/mL 1Fr.10mL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2291.25</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>11.11.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>00240</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30002548</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C0 MAXIFL0X-D 1Bis.3,5g</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>19343.44</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>30.10.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>00250</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>30002550</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C0 MAXILERG fmg/mL 1Fr.5mL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38,000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>435.34</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4900.34</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20.12.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>00260</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30002551</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C0 MIRUGELL 1Fr.ômL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3436.88</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>38686.88</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>30.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>00270</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>30002553</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C0 0FTPRED 10mg/mL 1Fr.smL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>140,000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>117.50</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1603.88</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>18053.88</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>25.08.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>00280</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>30002543</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CO REGENCEL 1Bis.3,5g</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12895.63</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20.12.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>00290</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30003662</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CA EPITHELIZE 50mgig 1Fr.5g 40,000  MI 159,30] 975 621,27 6.993,27  20.09.2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>159.30</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>621.27</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>6993.27</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>00300</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>30003617</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CA LUNAH mg/ml 1Fr.2,5mL 22,000  MI 159,30  975 341,70 3.846,30  10.09.2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22,000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>159.30</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>341.70</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3846.30</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>10.09.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>00310</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30002346</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C0 LUNERA 1Fr.10mL 120,000  MI 159,30] 975] 1.863,81 20.979,81  26.08.2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>603353.53</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>26.08.2024</t>
         </is>
       </c>
     </row>
